--- a/Tableau de Tests.xlsx
+++ b/Tableau de Tests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DB35AD-1B1B-4894-9C49-443A8F536BAD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C936F3-D5A4-43DD-8247-325902E735BF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Module 3.1</t>
   </si>
@@ -429,7 +429,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,6 +497,9 @@
       <c r="K3" t="s">
         <v>12</v>
       </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
       <c r="P3" t="s">
         <v>8</v>
       </c>
